--- a/sb_fam_counts_2023.xlsx
+++ b/sb_fam_counts_2023.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alissaiverson/.ssh/HLC_soil_and_veg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\Documents\GitHub\HLC_soil_and_veg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA9033-48D6-5542-994F-53A7517E04D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC14FBD-147B-40B2-B28C-E2065ADD0D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$52</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
   <si>
     <t>Family</t>
   </si>
@@ -381,19 +385,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,8 +437,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,42 +801,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -830,20 +849,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -853,14 +872,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="H4" t="s">
@@ -870,643 +889,632 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="14" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
       <c r="B23" s="2"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <v>3</v>
       </c>
       <c r="B24" s="2">
         <v>9</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
       <c r="B26" s="2"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
         <v>2</v>
       </c>
       <c r="B28" s="2">
         <v>11</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
       <c r="B29" s="2"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
         <v>3</v>
       </c>
       <c r="B30" s="2">
         <v>12</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="20">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
       <c r="B32" s="2"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
         <v>14</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>13</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="20">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="14" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="14" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="14" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="14" t="s">
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="14" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="14" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="14" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="14" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="14" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="14" t="s">
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="7">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
         <v>2</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>14</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="20">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50">
         <v>16</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>17</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>18</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C33:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C9:C14"/>
@@ -1514,7 +1522,615 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="C33:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C67F23E-DD2B-4119-A33D-D30CFF95791C}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C52" xr:uid="{3C67F23E-DD2B-4119-A33D-D30CFF95791C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C52">
+      <sortCondition ref="B1:B52"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>